--- a/Нормальная встряска и наивный алгоритм.xlsx
+++ b/Нормальная встряска и наивный алгоритм.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>температура</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>всего  объем 640 мл</t>
   </si>
 </sst>
 </file>
@@ -349,55 +352,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>226.73796904205511</c:v>
+                  <c:v>226.43213956812775</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210.61559954484437</c:v>
+                  <c:v>210.5122034705073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>196.56047194906478</c:v>
+                  <c:v>196.59685549595469</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>184.30752043546613</c:v>
+                  <c:v>184.4336842328596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173.62566644506333</c:v>
+                  <c:v>173.80206111815721</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>164.31346076583156</c:v>
+                  <c:v>164.50913844131969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>156.19528439961016</c:v>
+                  <c:v>156.38635126705873</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>149.11803656131787</c:v>
+                  <c:v>149.28635982488396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>142.94824734941807</c:v>
+                  <c:v>143.08037690332088</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>137.56956063545096</c:v>
+                  <c:v>137.65583177021642</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>132.88053970241683</c:v>
+                  <c:v>132.91432824482871</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>128.79275424851824</c:v>
+                  <c:v>128.7698598830367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>125.229112679042</c:v>
+                  <c:v>125.14724990079688</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>122.12240823505327</c:v>
+                  <c:v>121.98078753751579</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>119.41405154032603</c:v>
+                  <c:v>119.2130361242443</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117.05296566359675</c:v>
+                  <c:v>116.79379123616405</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>114.9946228581075</c:v>
+                  <c:v>114.67917003122552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1473,11 +1476,11 @@
       </c>
       <c r="D2">
         <f>$H$4 - $I$4*EXP(-A2/$J$4)</f>
-        <v>-8.6155995448443576</v>
+        <v>-10.512203470507302</v>
       </c>
       <c r="R2">
         <f>SUM(P3:P19)</f>
-        <v>83.782700002252028</v>
+        <v>95.917856343519745</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
@@ -1507,11 +1510,11 @@
       </c>
       <c r="O3">
         <f>$H$4 + $I$4*EXP(-L3/$J$4)</f>
-        <v>226.73796904205511</v>
+        <v>226.43213956812775</v>
       </c>
       <c r="P3">
         <f>(M3-O3)^2</f>
-        <v>18.164907886480613</v>
+        <v>20.865348925064119</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
@@ -1525,13 +1528,13 @@
         <v>20.56</v>
       </c>
       <c r="H4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I4">
-        <v>144.23163239966439</v>
+        <v>144.64543655615839</v>
       </c>
       <c r="J4">
-        <v>7.2875443194057565</v>
+        <v>7.4305375910182416</v>
       </c>
       <c r="L4">
         <f>L3+1</f>
@@ -1542,11 +1545,11 @@
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O19" si="0">$H$4 + $I$4*EXP(-L4/$J$4)</f>
-        <v>210.61559954484437</v>
+        <v>210.5122034705073</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P19" si="1">(M4-O4)^2</f>
-        <v>1.9165646202351103</v>
+        <v>2.2135385131705165</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
@@ -1571,11 +1574,11 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>196.56047194906478</v>
+        <v>196.59685549595469</v>
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
-        <v>6.5560166019475767</v>
+        <v>6.7436584668700528</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
@@ -1600,11 +1603,11 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>184.30752043546613</v>
+        <v>184.4336842328596</v>
       </c>
       <c r="P6">
         <f t="shared" si="1"/>
-        <v>5.3246505600938026</v>
+        <v>5.9228189452694435</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
@@ -1626,11 +1629,11 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>173.62566644506333</v>
+        <v>173.80206111815721</v>
       </c>
       <c r="P7">
         <f t="shared" si="1"/>
-        <v>6.8941242807315097</v>
+        <v>7.851546509888446</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
@@ -1652,11 +1655,11 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>164.31346076583156</v>
+        <v>164.50913844131969</v>
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
-        <v>5.3521007150419688</v>
+        <v>6.2957757177082136</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
@@ -1678,11 +1681,11 @@
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>156.19528439961016</v>
+        <v>156.38635126705873</v>
       </c>
       <c r="P9">
         <f t="shared" si="1"/>
-        <v>4.8192735951717367</v>
+        <v>5.6946723697927979</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
@@ -1704,11 +1707,11 @@
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>149.11803656131787</v>
+        <v>149.28635982488396</v>
       </c>
       <c r="P10">
         <f t="shared" si="1"/>
-        <v>0.38196919112561123</v>
+        <v>0.61836177419153127</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
@@ -1730,11 +1733,11 @@
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
-        <v>142.94824734941807</v>
+        <v>143.08037690332088</v>
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
-        <v>0.89917303567839169</v>
+        <v>1.1672142532292191</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
@@ -1747,6 +1750,9 @@
       <c r="C12">
         <v>20.62</v>
       </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
       <c r="L12">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1756,11 +1762,11 @@
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>137.56956063545096</v>
+        <v>137.65583177021642</v>
       </c>
       <c r="P12">
         <f t="shared" si="1"/>
-        <v>0.13657506327492208</v>
+        <v>0.20778260273864835</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
@@ -1782,11 +1788,11 @@
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>132.88053970241683</v>
+        <v>132.91432824482871</v>
       </c>
       <c r="P13">
         <f t="shared" si="1"/>
-        <v>0.10205488173192297</v>
+        <v>8.1608351702639206E-2</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
@@ -1808,11 +1814,11 @@
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>128.79275424851824</v>
+        <v>128.7698598830367</v>
       </c>
       <c r="P14">
         <f t="shared" si="1"/>
-        <v>4.0290355068416384</v>
+        <v>4.1214688945038001</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
@@ -1834,11 +1840,11 @@
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>125.229112679042</v>
+        <v>125.14724990079688</v>
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
-        <v>9.43034893802065</v>
+        <v>9.939833188025359</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
@@ -1860,11 +1866,11 @@
       </c>
       <c r="O16">
         <f t="shared" si="0"/>
-        <v>122.12240823505327</v>
+        <v>121.98078753751579</v>
       </c>
       <c r="P16">
         <f t="shared" si="1"/>
-        <v>3.1598324828064466</v>
+        <v>3.6833764761547085</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
@@ -1886,11 +1892,11 @@
       </c>
       <c r="O17">
         <f t="shared" si="0"/>
-        <v>119.41405154032603</v>
+        <v>119.2130361242443</v>
       </c>
       <c r="P17">
         <f t="shared" si="1"/>
-        <v>4.3511809764162157</v>
+        <v>5.2302037690115455</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
@@ -1912,11 +1918,11 @@
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
-        <v>117.05296566359675</v>
+        <v>116.79379123616405</v>
       </c>
       <c r="P18">
         <f t="shared" si="1"/>
-        <v>5.9879770435364881</v>
+        <v>7.3235658734624778</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
@@ -1938,11 +1944,11 @@
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
-        <v>114.9946228581075</v>
+        <v>114.67917003122552</v>
       </c>
       <c r="P19">
         <f t="shared" si="1"/>
-        <v>6.276914623117408</v>
+        <v>7.9570817127362083</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
